--- a/biology/Zoologie/Eumenes/Eumenes.xlsx
+++ b/biology/Zoologie/Eumenes/Eumenes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumenes (les eumènes en français), est un genre de guêpes solitaires qui construisent des nids de terre, raison pour laquelle on les surnomme « guêpes potières » ou « maçonnes » (tout comme d'autres genres). 
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces et sous-espèces présentes en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eumenes aemilianus Guiglia 1951
@@ -544,7 +558,7 @@
 Eumenes subpomiformis Bluethgen 1938
 			Urnes constituées de grains de sable et de salive desséchée
 			Urne éclatée contenant un cadavre d'Eumenes pedunculatus
-La femelle Eumenes pedunculatus construit un nid en forme d'urne, cimentée à l'aide de grains de sable et de salive dans laquelle elle place des chenilles paralysées par son aiguillon. Ensuite, elle pond un unique œuf au plafond puis, scelle l'urne. La larve se nourrit de ces chenilles durant l'automne et l'hiver pour éclore en été sous la forme adulte[1].</t>
+La femelle Eumenes pedunculatus construit un nid en forme d'urne, cimentée à l'aide de grains de sable et de salive dans laquelle elle place des chenilles paralysées par son aiguillon. Ensuite, elle pond un unique œuf au plafond puis, scelle l'urne. La larve se nourrit de ces chenilles durant l'automne et l'hiver pour éclore en été sous la forme adulte.</t>
         </is>
       </c>
     </row>
